--- a/tariff_comparer/tariffs.xlsx
+++ b/tariff_comparer/tariffs.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E630FA-2647-45A0-AE5F-C2E9F97D254F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="975" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="975" windowWidth="15375" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="свод" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="303">
   <si>
     <t>Банк</t>
   </si>
@@ -1016,87 +1011,16 @@
     <t>Большие возможности</t>
   </si>
   <si>
-    <t>2 мес - 1 руб, с  3 мес - 590 руб.</t>
-  </si>
-  <si>
-    <t>2 мес - 1 руб, с  3 мес - 1090 руб.</t>
-  </si>
-  <si>
-    <t>2 мес - 1 руб, с  3 мес - 2 390 руб.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>12 990 руб.</t>
-  </si>
-  <si>
     <t>3% от суммы</t>
   </si>
   <si>
     <t>до 500 тыс. руб. {свыше 500 тыс. руб. в месяц 3% от суммы}</t>
   </si>
   <si>
-    <t>250 руб. в месяц / 2 500руб. в год VisaBusiness/MasterCard Business</t>
-  </si>
-  <si>
-    <t>бесплатно Visa Platinum Business / MasterCard Preferred</t>
-  </si>
-  <si>
-    <t>250 руб. в месяц / 2 500руб. в год VisaBusiness/MasterCardBusiness</t>
-  </si>
-  <si>
-    <t>бесплатно Visa Business Momentum / Mastercard Business Momentum</t>
-  </si>
-  <si>
     <t>3% от суммы, мин. 400 руб.</t>
-  </si>
-  <si>
-    <t>0,5% - до 150 тыс. руб. (для ИП - бесплатно) 1% - от 150 до 300 тыс. руб. 1,7% - от 300 до 1 500 тыс. руб. 3,5% - от 1 500 до 5 000 тыс. руб. 8% - свыше 5 000 тыс. руб.  Через функцию «зарплатный проект» 0,4 % от любой суммы</t>
-  </si>
-  <si>
-    <t>0,5% - до 150 тыс. руб. – для ИП - бесплатно) 1% - от 150 до 300 тыс. руб. 1,7% - от 300 до 1 500 тыс. руб. 3,5% - от 1500 до 5 000тыс. руб. 8% -свыше 5 000тыс. руб. Через функцию «зарплатный проект» 0,4 % от любой суммы</t>
-  </si>
-  <si>
-    <t>0,5% - до 150 тыс. руб. – для ИП - бесплатно) 1% - от 150 до 300 тыс. руб. 1,7% - от 300 до 1 500 тыс. руб. 3,5% - от 1500 до 5 000тыс. руб. 8% -свыше 5000тыс. руб. Через функцию «зарплатный проект» 0,4 % от любой суммы</t>
-  </si>
-  <si>
-    <t>бесплатно - до 300 тыс. руб. 1,7% - от 300 до 1 500 тыс. руб. 3,5% - от 1 500 до 5 000 тыс. руб. 8% - свыше 5 000 тыс. руб. Через функцию «зарплатный проект» 0,4 % от любой суммы</t>
-  </si>
-  <si>
-    <t>БК: 0,15% от суммы Касса: до 100 тыс. руб. включительно: 1% от суммы,
-мин. 150 руб.
-свыше 100 тыс.руб.: 1% от суммы</t>
-  </si>
-  <si>
-    <t>БК: до 50 тыс. руб., {свыше 50 тыс. руб. в месяц 0,3% от суммы} Касса: до 100 тыс. руб. включительно: 0.36% от суммы,
-мин. 150 руб.
-свыше 100 тыс.руб.: 0,3% от суммы</t>
-  </si>
-  <si>
-    <t>БК: до 100 тыс. руб. {свыше 100 тыс. руб. в месяц 0,15% от суммы} Касса: до 100 тыс. руб. включительно: 0.36% от суммы,
-мин. 150 руб.
-свыше 100 тыс.руб.: 0,3% от суммы</t>
-  </si>
-  <si>
-    <t>БК: 0,3% от суммы Касса: до 100 тыс. руб. включительно: 0.36% от суммы,
-мин. 150 руб.
-свыше 100 тыс.руб.: 0,3% от суммы</t>
-  </si>
-  <si>
-    <t>БК: до 500 тыс. руб. {свыше 500 тыс. руб. в месяц 0,3% от суммы} Касса: до 500 тыс. руб. {свыше 500 тыс. руб. в месяц 0,3% от суммы}</t>
-  </si>
-  <si>
-    <t>5% - до 5 млн. руб. 10% - свыше 5 млн. руб.</t>
-  </si>
-  <si>
-    <t>4% - до 2 млн. руб. 5% - от 2до 5 млн. руб. 10% - свыше 5млн. руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3% - до 2 млн.руб. 5% - от 2 до 5 млн. руб. 10% - свыше 5млн. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3% - до 2 млн. руб. 5% - от 2 до 5 млн. руб. 10% - свыше 5 млн. </t>
   </si>
   <si>
     <t>Базовый</t>
@@ -1190,54 +1114,82 @@
     <t>0,3%
 от суммы</t>
   </si>
+  <si>
+    <t>8% - свыше 5000 тыс. руб. {*Платеж со счета ЮЛ на счет ФЛ для ИП до 150 тыс. руб. уменьшает лимит платежей в Пакете со счета ЮЛ на счет ЮЛ, если лимит платежей со счета ЮЛ на счет ЮЛ уже превышен - взимается тариф 199 руб. за платеж}</t>
+  </si>
+  <si>
+    <t>8% - свыше 5000 тыс. руб. {*Платеж со счета ЮЛ на счет ФЛ для ИП до 150 тыс. руб. уменьшает лимит платежей в Пакете со счета ЮЛ на счет ЮЛ, если лимит платежей со счета ЮЛ на счет ЮЛ уже превышен - взимается тариф 49 руб. за платеж}</t>
+  </si>
+  <si>
+    <t>8% - свыше 5000 тыс. руб. {*Платеж со счета ЮЛ на счет ФЛ для ИП до 150 тыс. руб. уменьшает лимит платежей в Пакете со счета ЮЛ на счет ЮЛ, если лимит платежей со счета ЮЛ на счет ЮЛ уже превышен - взимается стандартный тариф}</t>
+  </si>
+  <si>
+    <t>8% - свыше 5000 тыс. руб. {*Платеж со счета ЮЛ на счет ФЛ для ИП до 150 тыс. руб. уменьшает лимит платежей в Пакете со счета ЮЛ на счет ЮЛ, если лимит платежей со счета ЮЛ на счет ЮЛ уже превышен - взимается тариф 16 руб. за платеж}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5% - свыше 1 500 до 5 000 тыс. руб. включительно 8% - свыше 5 000 тыс. руб. </t>
+  </si>
+  <si>
+    <t>бесплатно - Visa Business Momentum / Mastercard Business Momentum 250 руб. в месяц / 2 500 руб. в год - Visa Business/ MasterCard Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бесплатно Visa Platinum Business / MasterCard Preferred
+</t>
+  </si>
+  <si>
+    <t>БК: 0,15% от суммы
+Касса: 1% от суммы до 100 тыс. руб.
+включительно, 1% от суммы свыше 100 тыс. руб.</t>
+  </si>
+  <si>
+    <t>БК: до 50 тыс. руб.*, {*свыше 50 тыс. руб. в месяц 0,3% от суммы}
+Касса: 0.45% от суммы, мин. 200 руб. до 100 тыс. руб.
+включительно, 0,35% от суммы свыше 100 тыс. руб.</t>
+  </si>
+  <si>
+    <t>БК: до 100 тыс. руб.* {*свыше 100 тыс. руб. в месяц 0,15% от суммы}
+Касса: 0.45% от суммы, мин. 200 руб. до 100 тыс. руб.
+включительно, 0,35% от суммы свыше 100 тыс. руб.</t>
+  </si>
+  <si>
+    <t>БК: 0,3% от суммы
+Касса: 0.45% от суммы, мин. 200 руб. до 100 тыс. руб.
+включительно, 0,35% от суммы свыше 100 тыс. руб.</t>
+  </si>
+  <si>
+    <t>БК: до 500 тыс. руб. {свыше 500 тыс. руб. в месяц 0,3% от суммы}
+Касса: 0.45% от суммы, мин. 200 руб. до 100 тыс. руб.
+включительно, 0,35% от суммы свыше 100 тыс. руб.</t>
+  </si>
+  <si>
+    <t>0 руб./мес.</t>
+  </si>
+  <si>
+    <t>1 090 руб./мес.</t>
+  </si>
+  <si>
+    <t>12 990 руб./мес.</t>
+  </si>
+  <si>
+    <t>2 390 руб./мес.</t>
+  </si>
+  <si>
+    <t>590 руб./мес.</t>
+  </si>
+  <si>
+    <t>до 2 млн. руб. в месяц включительно 3% от суммы min: 500 руб.,
+свыше 2 млн. руб. до 5 млн. руб. в месяц 7% от суммы,
+свыше 5 млн. руб. в  месяц 10% от суммы</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1263,101 +1215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1637,19 +1496,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AV8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AV4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BE8" sqref="BE8"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
@@ -1696,1460 +1555,1355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="29" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30" t="s">
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30" t="s">
+      <c r="R1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="27" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" t="s">
         <v>122</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" t="s">
         <v>131</v>
       </c>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" t="s">
         <v>147</v>
       </c>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="27" t="s">
+      <c r="AS1" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AV1" t="s">
         <v>249</v>
       </c>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
+      <c r="BA1" t="s">
+        <v>262</v>
+      </c>
       <c r="BD1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="BE1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:57" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" t="s">
         <v>98</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" t="s">
         <v>100</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" t="s">
         <v>101</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" t="s">
         <v>49</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" t="s">
         <v>121</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" t="s">
         <v>132</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" t="s">
         <v>133</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AM2" t="s">
         <v>134</v>
       </c>
-      <c r="AN2" s="19" t="s">
+      <c r="AN2" t="s">
         <v>148</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AO2" t="s">
         <v>149</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" t="s">
         <v>150</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AQ2" t="s">
         <v>151</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" t="s">
         <v>152</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="AS2" t="s">
         <v>154</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AT2" t="s">
         <v>155</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AU2" t="s">
         <v>157</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" t="s">
         <v>250</v>
       </c>
-      <c r="AW2" s="13" t="s">
+      <c r="AW2" t="s">
         <v>251</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="AX2" t="s">
         <v>252</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AY2" t="s">
         <v>253</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AZ2" t="s">
         <v>254</v>
       </c>
-      <c r="BA2" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB2" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="BC2" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="BD2" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="BE2" s="13" t="s">
-        <v>293</v>
+      <c r="BA2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:57" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>238</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" t="s">
         <v>242</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" t="s">
         <v>243</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="X3" t="s">
         <v>244</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Y3" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AA3" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AB3" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AD3" t="s">
         <v>248</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AE3" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AF3" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="21" t="s">
+      <c r="AG3" t="s">
         <v>104</v>
       </c>
-      <c r="AH3" s="21" t="s">
+      <c r="AH3" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AI3" t="s">
         <v>123</v>
       </c>
-      <c r="AJ3" s="21" t="s">
+      <c r="AJ3" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="AK3" t="s">
         <v>123</v>
       </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AL3" t="s">
         <v>163</v>
       </c>
-      <c r="AM3" s="21" t="s">
+      <c r="AM3" t="s">
         <v>162</v>
       </c>
-      <c r="AN3" s="21" t="s">
+      <c r="AN3" t="s">
         <v>15</v>
       </c>
-      <c r="AO3" s="21" t="s">
+      <c r="AO3" t="s">
         <v>16</v>
       </c>
-      <c r="AP3" s="21" t="s">
+      <c r="AP3" t="s">
         <v>161</v>
       </c>
-      <c r="AQ3" s="21" t="s">
+      <c r="AQ3" t="s">
         <v>37</v>
       </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AR3" t="s">
         <v>160</v>
       </c>
-      <c r="AS3" s="21" t="s">
+      <c r="AS3" t="s">
         <v>15</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AT3" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="AU3" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="AW3" s="21" t="s">
+      <c r="AV3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA4" t="s">
         <v>255</v>
       </c>
-      <c r="AX3" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="AY3" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="AZ3" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="BA3" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB3" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="BC3" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="BD3" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="BE3" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>258</v>
-      </c>
       <c r="BB4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BC4" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD4" s="26" t="s">
-        <v>295</v>
+        <v>255</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>274</v>
       </c>
       <c r="BE4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="O5" s="7" t="s">
+      <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AK5" t="s">
         <v>136</v>
       </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AL5" t="s">
         <v>143</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AN5" t="s">
         <v>168</v>
       </c>
-      <c r="AO5" s="7" t="s">
+      <c r="AO5" t="s">
         <v>168</v>
       </c>
-      <c r="AP5" s="7" t="s">
+      <c r="AP5" t="s">
         <v>168</v>
       </c>
-      <c r="AQ5" s="7" t="s">
+      <c r="AQ5" t="s">
         <v>168</v>
       </c>
-      <c r="AR5" s="7" t="s">
+      <c r="AR5" t="s">
         <v>168</v>
       </c>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
       <c r="AV5" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="AW5" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AX5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="AY5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="AZ5" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="BA5" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="BB5" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="BC5" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="BE5" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" t="s">
         <v>214</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" t="s">
         <v>221</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6">
         <v>0.01</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6">
         <v>50000</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6">
         <v>200000</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6">
         <v>300000</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AB6" t="s">
         <v>44</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" t="s">
         <v>112</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" t="s">
         <v>114</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AG6" t="s">
         <v>115</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AK6" t="s">
         <v>137</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" t="s">
         <v>142</v>
       </c>
-      <c r="AM6" s="7" t="s">
+      <c r="AM6" t="s">
         <v>146</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AN6" t="s">
         <v>43</v>
       </c>
-      <c r="AO6" s="7" t="s">
+      <c r="AO6" t="s">
         <v>43</v>
       </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AP6" t="s">
         <v>43</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AQ6" t="s">
         <v>43</v>
       </c>
-      <c r="AR6" s="7" t="s">
+      <c r="AR6" t="s">
         <v>43</v>
       </c>
-      <c r="AS6" s="7" t="s">
+      <c r="AS6" t="s">
         <v>179</v>
       </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AT6" t="s">
         <v>180</v>
       </c>
-      <c r="AU6" s="7" t="s">
+      <c r="AU6" t="s">
         <v>181</v>
       </c>
       <c r="AV6" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="AW6" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="AX6" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="AY6" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AZ6" t="s">
+        <v>296</v>
+      </c>
+      <c r="BA6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BB6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BC6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BD6" t="s">
         <v>275</v>
       </c>
-      <c r="BA6" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BB6" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BC6" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>296</v>
-      </c>
-      <c r="BE6" s="26" t="s">
-        <v>305</v>
+      <c r="BE6" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" t="s">
         <v>227</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>227</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="U7" s="12" t="s">
+      <c r="U7" t="s">
         <v>247</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" t="s">
         <v>247</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" t="s">
         <v>247</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" t="s">
         <v>247</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AN7" t="s">
         <v>171</v>
       </c>
-      <c r="AO7" s="7" t="s">
+      <c r="AO7" t="s">
         <v>171</v>
       </c>
-      <c r="AP7" s="7" t="s">
+      <c r="AP7" t="s">
         <v>171</v>
       </c>
-      <c r="AQ7" s="7" t="s">
+      <c r="AQ7" t="s">
         <v>171</v>
       </c>
-      <c r="AR7" s="7" t="s">
+      <c r="AR7" t="s">
         <v>171</v>
       </c>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
       <c r="AV7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AW7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AX7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AY7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AZ7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BA7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="BB7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="BC7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="BD7" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE7" s="26" t="s">
-        <v>304</v>
+        <v>255</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>217</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" t="s">
         <v>234</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" t="s">
         <v>235</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" t="s">
         <v>236</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" t="s">
         <v>63</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" t="s">
         <v>81</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" t="s">
         <v>82</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" t="s">
         <v>83</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" t="s">
         <v>84</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AA8" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AB8" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" s="7" t="s">
+      <c r="AC8" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AD8" t="s">
         <v>107</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AE8" t="s">
         <v>108</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AF8" t="s">
         <v>108</v>
       </c>
-      <c r="AG8" s="7" t="s">
+      <c r="AG8" t="s">
         <v>107</v>
       </c>
-      <c r="AH8" s="7" t="s">
+      <c r="AH8" t="s">
         <v>129</v>
       </c>
-      <c r="AI8" s="7" t="s">
+      <c r="AI8" t="s">
         <v>124</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AJ8" t="s">
         <v>125</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AK8" t="s">
         <v>138</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AL8" t="s">
         <v>139</v>
       </c>
-      <c r="AM8" s="7" t="s">
+      <c r="AM8" t="s">
         <v>144</v>
       </c>
-      <c r="AN8" s="7" t="s">
+      <c r="AN8" t="s">
         <v>164</v>
       </c>
-      <c r="AO8" s="7" t="s">
+      <c r="AO8" t="s">
         <v>165</v>
       </c>
-      <c r="AP8" s="7" t="s">
+      <c r="AP8" t="s">
         <v>166</v>
       </c>
-      <c r="AQ8" s="7" t="s">
+      <c r="AQ8" t="s">
         <v>166</v>
       </c>
-      <c r="AR8" s="7" t="s">
+      <c r="AR8" t="s">
         <v>167</v>
       </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AS8" t="s">
         <v>44</v>
       </c>
-      <c r="AT8" s="7" t="s">
+      <c r="AT8" t="s">
         <v>173</v>
       </c>
-      <c r="AU8" s="7" t="s">
+      <c r="AU8" t="s">
         <v>174</v>
       </c>
       <c r="BA8" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="BB8" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="BC8" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="BD8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BE8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" t="s">
         <v>228</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" t="s">
         <v>231</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" t="s">
         <v>231</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" t="s">
         <v>237</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" t="s">
         <v>240</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" t="s">
         <v>239</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" t="s">
         <v>241</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" t="s">
         <v>245</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" t="s">
         <v>245</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" t="s">
         <v>245</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" t="s">
         <v>245</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" t="s">
         <v>109</v>
       </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AC9" t="s">
         <v>110</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AD9" t="s">
         <v>111</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AE9" t="s">
         <v>111</v>
       </c>
-      <c r="AF9" s="7" t="s">
+      <c r="AF9" t="s">
         <v>111</v>
       </c>
-      <c r="AG9" s="7" t="s">
+      <c r="AG9" t="s">
         <v>111</v>
       </c>
-      <c r="AH9" s="7" t="s">
+      <c r="AH9" t="s">
         <v>130</v>
       </c>
-      <c r="AK9" s="7" t="s">
+      <c r="AK9" t="s">
         <v>141</v>
       </c>
-      <c r="AL9" s="7" t="s">
+      <c r="AL9" t="s">
         <v>140</v>
       </c>
-      <c r="AM9" s="7" t="s">
+      <c r="AM9" t="s">
         <v>145</v>
       </c>
-      <c r="AN9" s="7" t="s">
+      <c r="AN9" t="s">
         <v>169</v>
       </c>
-      <c r="AO9" s="7" t="s">
+      <c r="AO9" t="s">
         <v>169</v>
       </c>
-      <c r="AP9" s="7" t="s">
+      <c r="AP9" t="s">
         <v>169</v>
       </c>
-      <c r="AQ9" s="7" t="s">
+      <c r="AQ9" t="s">
         <v>169</v>
       </c>
-      <c r="AR9" s="7" t="s">
+      <c r="AR9" t="s">
         <v>170</v>
       </c>
-      <c r="AS9" s="7" t="s">
+      <c r="AS9" t="s">
         <v>44</v>
       </c>
-      <c r="AT9" s="7" t="s">
+      <c r="AT9" t="s">
         <v>175</v>
       </c>
-      <c r="AU9" s="7" t="s">
+      <c r="AU9" t="s">
         <v>176</v>
       </c>
       <c r="AV9" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="AW9" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="AX9" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="AY9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA9" t="s">
         <v>269</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>270</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>290</v>
-      </c>
       <c r="BB9" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="BC9" t="s">
-        <v>290</v>
-      </c>
-      <c r="BD9" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="BE9" s="26" t="s">
-        <v>301</v>
+        <v>269</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" t="s">
         <v>230</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" t="s">
         <v>230</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" t="s">
         <v>237</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" t="s">
         <v>246</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" t="s">
         <v>246</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="X10" t="s">
         <v>246</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10">
         <v>30000</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10">
         <v>150000</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10">
         <v>200000</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AB10" t="s">
         <v>116</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AC10" t="s">
         <v>117</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AD10" t="s">
         <v>118</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AE10" t="s">
         <v>119</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AF10" t="s">
         <v>119</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AG10" t="s">
         <v>119</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AH10" t="s">
         <v>126</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AI10" t="s">
         <v>127</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AJ10" t="s">
         <v>127</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AK10" t="s">
         <v>141</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" t="s">
         <v>140</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" t="s">
         <v>145</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" t="s">
         <v>172</v>
       </c>
-      <c r="AO10" s="7" t="s">
+      <c r="AO10" t="s">
         <v>172</v>
       </c>
-      <c r="AP10" s="7" t="s">
+      <c r="AP10" t="s">
         <v>172</v>
       </c>
-      <c r="AQ10" s="7" t="s">
+      <c r="AQ10" t="s">
         <v>172</v>
       </c>
-      <c r="AR10" s="7" t="s">
+      <c r="AR10" t="s">
         <v>172</v>
       </c>
-      <c r="AS10" s="7" t="s">
+      <c r="AS10" t="s">
         <v>44</v>
       </c>
-      <c r="AT10" s="7" t="s">
+      <c r="AT10" t="s">
         <v>177</v>
       </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AU10" t="s">
         <v>178</v>
       </c>
       <c r="AV10" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="AW10" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="AX10" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="AY10" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="AZ10" t="s">
-        <v>279</v>
-      </c>
-      <c r="BA10" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="BB10" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="BC10" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD10" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE10" s="25" t="s">
         <v>302</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:57" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="H11" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" t="s">
         <v>219</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>224</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" t="s">
         <v>74</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="U11" t="s">
         <v>85</v>
       </c>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="AB11" s="7" t="s">
+      <c r="AB11" t="s">
         <v>120</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AC11" t="s">
         <v>120</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AE11" t="s">
         <v>120</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AF11" t="s">
         <v>120</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" t="s">
         <v>120</v>
       </c>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
       <c r="BA11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="BB11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="BC11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-    </row>
+    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
